--- a/medicine/Œil et vue/Chirurgie_oculaire/Chirurgie_oculaire.xlsx
+++ b/medicine/Œil et vue/Chirurgie_oculaire/Chirurgie_oculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie de l’œil, également connue sous le nom de chirurgie ophtalmologique ou chirurgie oculaire, est la chirurgie exécutée sur l'œil et ses annexes, généralement par un ophtalmologue. Bien que la plupart des interventions chirurgicales sur l'œil puissent être exécutés par n’importe quel ophtalmologue expérimenté, les procédures les plus complexes sont habituellement données à des médecins qualifiés et reconnus.
 </t>
@@ -511,9 +523,11 @@
           <t>Préparation et précautions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'œil est un organe sensible, qui requiert des soins extrêmement exigeants avant, pendant et après l’opération chirurgicale. Le chirurgien ophtalmologue[1] qui intervient doit donc prendre toutes ses responsabilités et identifier les bonnes façons de procéder afin de mener son opération sans risque. Beaucoup de programmes universitaires aux États-Unis permettent à des patients d'indiquer s'ils acceptent d’être opérés par un interne ou alors s’ils refusent explicitement et veulent vraiment avoir affaire à un médecin qualifié.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œil est un organe sensible, qui requiert des soins extrêmement exigeants avant, pendant et après l’opération chirurgicale. Le chirurgien ophtalmologue qui intervient doit donc prendre toutes ses responsabilités et identifier les bonnes façons de procéder afin de mener son opération sans risque. Beaucoup de programmes universitaires aux États-Unis permettent à des patients d'indiquer s'ils acceptent d’être opérés par un interne ou alors s’ils refusent explicitement et veulent vraiment avoir affaire à un médecin qualifié.
 L'anesthésie est une nécessité pour n'importe quelle chirurgie d'œil. L'anesthésie locale est en règle générale la plus employée. Des techniques d’injection et d’infiltration de produit anesthésiant au niveau sous-cortical sont employées pour immobiliser les muscles extra-oculaires et éliminer la sensation de douleur. L'anesthésie locale emploie souvent des gels à base de lidocaïne qui est préférée pour les opérations rapides. Pour l’anesthésie locale, la coopération du patient est la meilleure chose pour une procédure se déroulant en douceur. L’anesthésie générale quant à elle, est recommandée pour les enfants, pour des lésions traumatiques de l’œil, pour la plus grande partie des orbitotomies et pour les patients ayant de l’appréhension. Une surveillance cardiovasculaire est préférable pendant l'anesthésie locale et est obligatoire pour l'anesthésie générale. Des précautions appropriées au niveau de la stérilité sont prises pour préparer la zone qui va subir l’opération, y compris par l'utilisation d’antiseptiques comme la bétadine. Être vêtus de blouses, et gants stériles est bien sûr obligatoire. Une poche en plastique avec un réceptacle aide à récupérer les fluides pendant la phacoémulsification. Un blépharostat, sorte de spéculum adapté pour les yeux est inséré dans les culs-de-sac conjonctivaux pour maintenir les paupières ouvertes.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Chirurgie laser et chirurgie réfractive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que les termes de chirurgie laser et chirurgie réfractive soient généralement employés comme s’ils étaient interchangeables, ce n’est en effet pas le cas. Le laser peut être utilisé pour traiter des affections  non réfractives (par exemple pour sceller une déchirure rétinienne), tandis que la kératotomie radiaire est un exemple de chirurgie réfractive sans utilisation d'un laser.
 </t>
@@ -574,9 +590,11 @@
           <t>Chirurgie de la cataracte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cataracte est l'opacification du cristallin. Cette opacification est responsable d'une baisse progressive de la vue, au début accompagnée de gêne à la lumière (photophobie), d'éblouissements, ou de la perception d'un "voile visuel"  [2]. Cette baisse de la vision peut être rapide (quelques heures) à cause d'un traumatisme.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cataracte est l'opacification du cristallin. Cette opacification est responsable d'une baisse progressive de la vue, au début accompagnée de gêne à la lumière (photophobie), d'éblouissements, ou de la perception d'un "voile visuel"  . Cette baisse de la vision peut être rapide (quelques heures) à cause d'un traumatisme.
 Si la perte de vue est significative, l’opération chirurgicale peut être justifiée, la perte de vue peut être récupérée par le remplacement du cristallin par un cristallin artificiel (implant intraoculaire). Cette opération, la phacoémulsification, est l’une des plus communes en chirurgie de l’œil.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Chirurgie des glaucomes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le glaucome est un groupe de maladies affectant le nerf optique ayant pour résultat la perte de la vision, cette affection est fréquemment caractérisée par une augmentation de la pression intraoculaire. Il existe plusieurs moyens de traiter les glaucomes par la chirurgie, différentes combinaisons ou variations sur l’acte chirurgical permettant d’évacuer les humeurs aqueuses de l’œil afin de faire baisser cette pression intraoculaire. Les principales méthodes de chirurgie filtrante sont :
 la trabéculectomie ;
@@ -640,7 +660,9 @@
           <t>Chirurgie réfractive</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La chirurgie réfractive vise à corriger les erreurs de réfraction de l'œil, réduisant ou éliminant le besoin du port de verres correcteurs.
 Les principales chirurgies contemporaines sont :
@@ -688,7 +710,9 @@
           <t>Chirurgie de la cornée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La chirurgie de la cornée concerne les opérations suivantes :
 la transplantation chirurgicale de la cornée, employée pour enlever une cornée opaque et pour la remplacer par une cornée claire :
@@ -723,7 +747,9 @@
           <t>Chirurgie vitréo-rétinienne</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La chirurgie vitréo-rétinienne inclut les opérations suivantes :
 la vitrectomie :
@@ -765,7 +791,9 @@
           <t>Chirurgie des muscles des yeux</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie des muscles des yeux est surtout utilisée pour corriger des défauts de strabisme par les opérations suivantes :
 les procédures de relâchement des muscles :
@@ -809,7 +837,9 @@
           <t>Chirurgie oculoplastique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie oculoplastique ou oculoplastie, est une spécialité de l’ophtalmologie qui s’occupe de la chirurgie réparatrice et plastique de l'œil et de ses annexes.
 </t>
